--- a/statistics/R/roiObjectLvl_Within-PLI_alpha/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_alpha/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.016862694851825233</v>
+        <v>-0.015457470280839825</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.047357159017238026</v>
+        <v>-0.043410729099134904</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01468981064311492</v>
+        <v>-0.013465659756188575</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.009167988671094196</v>
+        <v>-0.008403989615169638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.010020933604008242</v>
+        <v>0.009185855803674092</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0131448807246356</v>
+        <v>-0.012049473997582716</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.309286999823804E-4</v>
+        <v>-5.783513083172376E-4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009307253863337084</v>
+        <v>0.00853164937472578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008149346695199788</v>
+        <v>0.007470234470599801</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3839527906017723E-4</v>
+        <v>1.2686233913850042E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.014409716455752342</v>
+        <v>-0.013208906751106197</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.013384722864945242</v>
+        <v>-0.012269329292866449</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.020528109402789596</v>
+        <v>-0.018817433619223833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.029961809285117436</v>
+        <v>0.02746499184469109</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0136699896425298</v>
+        <v>0.012530823838985516</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.010493532232662639</v>
+        <v>-0.0096190712132741</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0048732943469786405</v>
+        <v>0.004467186484730379</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0033511120467641375</v>
+        <v>-0.003071852709533973</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00771239094220455</v>
+        <v>-0.0070696916970207635</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006604884404620814</v>
+        <v>-0.0060544773709024224</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0024436235904806147</v>
+        <v>-0.0022399882912738645</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.021422028174333863</v>
+        <v>-0.01963685915980601</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.7084168318179955E-4</v>
+        <v>-3.3993820958339027E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.016217158800278964</v>
+        <v>-0.014865728900255615</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006179375744593152</v>
+        <v>0.005664427765877111</v>
       </c>
       <c r="D6" t="n">
-        <v>0.014149852450460298</v>
+        <v>0.012970698079588616</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.006589244872700517</v>
+        <v>-0.006040141133308807</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.015500763326850298</v>
+        <v>-0.01420903304961263</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.007135892850178682</v>
+        <v>-0.006541235112663801</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007344795388273595</v>
+        <v>0.006732729105917601</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01914361473040771</v>
+        <v>-0.017548313502873836</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.007802669916131988</v>
+        <v>-0.007152447423120767</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0037501440663496033</v>
+        <v>-0.003437632060820317</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04264920724548049</v>
+        <v>0.03909510664169047</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03172474523406199</v>
+        <v>-0.029081016464556853</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01051558670606284</v>
+        <v>-0.009639287813890951</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00307584131113553</v>
+        <v>0.002819521201874231</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.025086092115077563</v>
+        <v>-0.02299558443882105</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01550163470453314</v>
+        <v>0.014209831812488749</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0025865170792707115</v>
+        <v>0.0023709739893314485</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.483017905378862E-4</v>
+        <v>-5.02609974659729E-4</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.00770581069494114</v>
+        <v>-0.007063659803696165</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.017881204763615988</v>
+        <v>0.01639110436664787</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007893110918556767</v>
+        <v>0.007235351675343726</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.011443640018389989</v>
+        <v>-0.010490003350190735</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.024058463965296317</v>
+        <v>-0.022053591968188235</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007641656095504046</v>
+        <v>-0.007004851420878755</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01102356975736074</v>
+        <v>-0.0101049389442473</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003407502658507311</v>
+        <v>0.0031235441036316924</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01633943224332246</v>
+        <v>0.014977812889712228</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.018122954768917454</v>
+        <v>-0.01661270853817437</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05161313537272616</v>
+        <v>0.04731204075833234</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02244195541296995</v>
+        <v>-0.02057179246188906</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.015624642478862472</v>
+        <v>-0.01432258893895716</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.005816425925121549</v>
+        <v>-0.005331723764694818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007535307306474448</v>
+        <v>0.006907365030934809</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0010072183985228023</v>
+        <v>-9.232835319791799E-4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0014781862607949336</v>
+        <v>0.0013550040723953605</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.008763096806575</v>
+        <v>-0.008032838739360393</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.02048133026393889</v>
+        <v>-0.018774552741943895</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.016703696337563523</v>
+        <v>-0.015311721642766563</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03342908314824278</v>
+        <v>-0.030643326219222555</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.006227579519504867</v>
+        <v>-0.005708614559546243</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.015538729186980182</v>
+        <v>-0.014243835088065204</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.025419354470737898</v>
+        <v>-0.023301074931509624</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005018331105287599</v>
+        <v>0.004600136846513614</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>6.237723629028413E-4</v>
+        <v>5.71791332660887E-4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003555404642361204</v>
+        <v>-0.0032591209221645157</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008841066764407712</v>
+        <v>0.008104311200707037</v>
       </c>
       <c r="F13" t="n">
-        <v>0.030392433653303297</v>
+        <v>0.027859730848861397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001838070678650383</v>
+        <v>0.0016848981220963233</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.003151649604738793</v>
+        <v>-0.0028890121376772826</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0016652276486645023</v>
+        <v>0.0015264586779424327</v>
       </c>
       <c r="D14" t="n">
-        <v>4.426598629496681E-4</v>
+        <v>4.0577154103732527E-4</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.017659363000977868</v>
+        <v>-0.016187749417563013</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.008334388129784653</v>
+        <v>-0.007639855785635918</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009219270088835274</v>
+        <v>0.008450997581432251</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.02111443185224482</v>
+        <v>-0.019354895864557797</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.04330057689741473</v>
+        <v>-0.039692195489296866</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001157872534684079</v>
+        <v>-0.001061383156793716</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.029025061241471917</v>
+        <v>-0.0266063061380159</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.016066231169206024</v>
+        <v>-0.014727378571772143</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0038163826236367604</v>
+        <v>0.0034983507383335444</v>
       </c>
       <c r="H15" t="n">
-        <v>0.022342644702893155</v>
+        <v>0.02048075764431878</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002139444168429705</v>
+        <v>-0.0019611571543939332</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.007219795206065138</v>
+        <v>-0.006618145605559789</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.010126118821771057</v>
+        <v>-0.009282275586623423</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03540058974841587</v>
+        <v>0.03245054060271446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005005518839510947</v>
+        <v>0.0045883922695516</v>
       </c>
       <c r="H16" t="n">
-        <v>0.011849865110734714</v>
+        <v>0.010862376351506775</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02196743138772128</v>
+        <v>-0.020136812105411184</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004433090065649625</v>
+        <v>0.004063665893512258</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008328203980377868</v>
+        <v>0.007634186982013014</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.010567684480727979</v>
+        <v>-0.009687044107333953</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005148005148005175</v>
+        <v>0.004719004719004716</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.007079661065168441</v>
+        <v>-0.006489689309737534</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04512576089616516</v>
+        <v>0.04136528082148466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.022070681125927916</v>
+        <v>0.02023145769876722</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01142494034650915</v>
+        <v>-0.010472861984300086</v>
       </c>
       <c r="F18" t="n">
-        <v>0.008667658923413424</v>
+        <v>0.007945354013129013</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04635405618842464</v>
+        <v>-0.04249121817272261</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.06135370265805051</v>
+        <v>-0.056240894103213035</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.010031723126961212</v>
+        <v>0.009195746199714416</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00766977464155183</v>
+        <v>0.007030626754755964</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0033892117225450824</v>
+        <v>-0.0031067774123329506</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.043391533161354245</v>
+        <v>-0.03977557206457466</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.001344275483180113</v>
+        <v>-0.001232252526248423</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.021352576051033245</v>
+        <v>-0.019573194713447095</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.013918218887163103</v>
+        <v>-0.012758367313232877</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.024507798535258307</v>
+        <v>-0.022465481990653513</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.1953483982482E-4</v>
+        <v>-3.8457360317273315E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0688388763836334</v>
+        <v>-0.06310230335166389</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.03597127510170983</v>
+        <v>-0.032973668843234105</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.012196578236037592</v>
+        <v>-0.011180196716367719</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.010911293519989096</v>
+        <v>-0.010002019059990042</v>
       </c>
       <c r="D21" t="n">
-        <v>0.018410248959447983</v>
+        <v>0.01687606154616078</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0014012405316752852</v>
+        <v>-0.001284470487369016</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.021091291114174404</v>
+        <v>-0.01933368352132664</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.014265447875287607</v>
+        <v>-0.013076660552347075</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.010688641123423714</v>
+        <v>-0.009797921029805201</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03810622992208662</v>
+        <v>-0.03493071076191279</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.020026982209953248</v>
+        <v>-0.018358067025790403</v>
       </c>
       <c r="E22" t="n">
-        <v>2.6275007747345036E-4</v>
+        <v>2.4085423768399616E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.012565077344994013</v>
+        <v>0.011517987566244392</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01425882606006823</v>
+        <v>0.0130705905550626</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.019198923184430394</v>
+        <v>-0.017599012919061185</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.012192316540142578</v>
+        <v>0.011176290161797386</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0211170677009187</v>
+        <v>-0.019357312059175402</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.002048349874436861</v>
+        <v>-0.0018776540515670903</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006149571366962758</v>
+        <v>-0.005637107086382542</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01947900231653099</v>
+        <v>0.017855752123486723</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.044463346932976155</v>
+        <v>-0.040758068021894855</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.6456558195691047E-4</v>
+        <v>-3.3418511679389473E-4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002973920308016409</v>
+        <v>-0.0027260936156816573</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.007522268391833675</v>
+        <v>-0.006895412692514202</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002642475754603857</v>
+        <v>-0.0024222694417202484</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0066251656640671786</v>
+        <v>0.006073068525394909</v>
       </c>
       <c r="H24" t="n">
-        <v>0.019987682459078282</v>
+        <v>0.01832204225415518</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.017921365747452733</v>
+        <v>0.016427918601831626</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02060389016910752</v>
+        <v>0.018886899321681805</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.012193421284330375</v>
+        <v>-0.011177302843969616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.011842446625055403</v>
+        <v>0.010855576072967277</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02298546759303388</v>
+        <v>0.02107001196028102</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0244428770243989</v>
+        <v>0.022405970605698988</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0019718359725986456</v>
+        <v>0.0018075163082154622</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.013578578174851474</v>
+        <v>-0.012447029993613745</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.030724143372364843</v>
+        <v>-0.028163798091334402</v>
       </c>
       <c r="F26" t="n">
-        <v>0.013106637582569247</v>
+        <v>0.012014417784021902</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.02911480628871921</v>
+        <v>-0.026688572431326052</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.013494923661164171</v>
+        <v>-0.012370346689400513</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0054292685871631385</v>
+        <v>0.00497682953823303</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.027915822347553854</v>
+        <v>-0.02558950381859104</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.02815047038649504</v>
+        <v>-0.02580459785428718</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.012336729728034068</v>
+        <v>-0.011308668917364595</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.00782470347687736</v>
+        <v>-0.007172644853804311</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.00839942144289979</v>
+        <v>-0.007699469655991331</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01650080614883931</v>
+        <v>0.01512573896976932</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.010239780225754946</v>
+        <v>-0.009386465206942085</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.029581717987515077</v>
+        <v>-0.02711657482188884</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.014917923691215695</v>
+        <v>-0.013674763383614397</v>
       </c>
       <c r="G28" t="n">
-        <v>0.008228490937366828</v>
+        <v>0.007542783359253014</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.020490805017659208</v>
+        <v>-0.018783237932854413</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.027232937416003744</v>
+        <v>-0.024963525964670163</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01941914985393245</v>
+        <v>-0.0178008873661048</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005787973179277595</v>
+        <v>0.005305642081004425</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01632389312426996</v>
+        <v>0.014963568697247409</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02475015145822601</v>
+        <v>-0.022687638836707102</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03703308051134152</v>
+        <v>-0.03394699046872962</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.002981107872412292</v>
+        <v>-0.0027326822163778464</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03035837220619836</v>
+        <v>0.02782850785568175</v>
       </c>
       <c r="E30" t="n">
-        <v>0.021968820881864415</v>
+        <v>0.020138085808375727</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.007932798693668308</v>
+        <v>-0.00727173213586263</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04040874584352855</v>
+        <v>0.037041350356567804</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0033110319151509193</v>
+        <v>-0.0030351125888883335</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="G2" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>-0.003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         <v>-0.004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="7">
@@ -1227,7 +1227,7 @@
         <v>-0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>17.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04512576089616516</v>
+        <v>0.04136528082148466</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>29.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.021968820881864415</v>
+        <v>0.020138085808375727</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>19.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0688388763836334</v>
+        <v>-0.06310230335166389</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>17.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04635405618842464</v>
+        <v>-0.04249121817272261</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>29.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04040874584352855</v>
+        <v>0.037041350356567804</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>14.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.022342644702893155</v>
+        <v>0.02048075764431878</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1416,7 +1416,7 @@
         <v>17.0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06135370265805051</v>
+        <v>-0.056240894103213035</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1439,7 +1439,7 @@
         <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.044463346932976155</v>
+        <v>-0.040758068021894855</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1462,7 +1462,7 @@
         <v>24.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0244428770243989</v>
+        <v>0.022405970605698988</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -1519,7 +1519,7 @@
         <v>0.9721246125700241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6185791013654045</v>
+        <v>0.6185791013654048</v>
       </c>
     </row>
     <row r="3">
@@ -1536,10 +1536,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.982384480653743</v>
+        <v>0.9823844806537423</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8941233960402402</v>
+        <v>0.8941233960402261</v>
       </c>
     </row>
     <row r="4">
@@ -1576,10 +1576,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9531234634057685</v>
+        <v>0.9531234634057688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2204339785257623</v>
+        <v>0.22043397852576718</v>
       </c>
     </row>
     <row r="6">
@@ -1596,10 +1596,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9794428707192849</v>
+        <v>0.979442870719286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8238453692573529</v>
+        <v>0.8238453692573822</v>
       </c>
     </row>
     <row r="7">
@@ -1616,10 +1616,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9386440645243009</v>
+        <v>0.9386440645243013</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09239786238642898</v>
+        <v>0.09239786238643093</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1809,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1511866795512348</v>
+        <v>-0.15118667955123846</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1847,7 +1847,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3137214427332406</v>
+        <v>0.3137214427332492</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1885,7 +1885,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0867534242292414</v>
+        <v>1.0867534242292392</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>

--- a/statistics/R/roiObjectLvl_Within-PLI_alpha/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_alpha/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.015457470280839825</v>
+        <v>-0.016862694851825233</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.043410729099134904</v>
+        <v>-0.047357159017238026</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.013465659756188575</v>
+        <v>-0.01468981064311492</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.008403989615169638</v>
+        <v>-0.009167988671094196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009185855803674092</v>
+        <v>0.010020933604008242</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.012049473997582716</v>
+        <v>-0.0131448807246356</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.783513083172376E-4</v>
+        <v>-6.309286999823804E-4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00853164937472578</v>
+        <v>0.009307253863337084</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007470234470599801</v>
+        <v>0.008149346695199788</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2686233913850042E-4</v>
+        <v>1.3839527906017723E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.013208906751106197</v>
+        <v>-0.014409716455752342</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.012269329292866449</v>
+        <v>-0.013384722864945242</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.018817433619223833</v>
+        <v>-0.020528109402789596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02746499184469109</v>
+        <v>0.029961809285117436</v>
       </c>
       <c r="E4" t="n">
-        <v>0.012530823838985516</v>
+        <v>0.0136699896425298</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0096190712132741</v>
+        <v>-0.010493532232662639</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004467186484730379</v>
+        <v>0.0048732943469786405</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.003071852709533973</v>
+        <v>-0.0033511120467641375</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0070696916970207635</v>
+        <v>-0.00771239094220455</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0060544773709024224</v>
+        <v>-0.006604884404620814</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0022399882912738645</v>
+        <v>-0.0024436235904806147</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01963685915980601</v>
+        <v>-0.021422028174333863</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.3993820958339027E-4</v>
+        <v>-3.7084168318179955E-4</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.014865728900255615</v>
+        <v>-0.016217158800278964</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005664427765877111</v>
+        <v>0.006179375744593152</v>
       </c>
       <c r="D6" t="n">
-        <v>0.012970698079588616</v>
+        <v>0.014149852450460298</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.006040141133308807</v>
+        <v>-0.006589244872700517</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01420903304961263</v>
+        <v>-0.015500763326850298</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.006541235112663801</v>
+        <v>-0.007135892850178682</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006732729105917601</v>
+        <v>0.007344795388273595</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.017548313502873836</v>
+        <v>-0.01914361473040771</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.007152447423120767</v>
+        <v>-0.007802669916131988</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.003437632060820317</v>
+        <v>-0.0037501440663496033</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03909510664169047</v>
+        <v>0.04264920724548049</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.029081016464556853</v>
+        <v>-0.03172474523406199</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.009639287813890951</v>
+        <v>-0.01051558670606284</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002819521201874231</v>
+        <v>0.00307584131113553</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02299558443882105</v>
+        <v>-0.025086092115077563</v>
       </c>
       <c r="E8" t="n">
-        <v>0.014209831812488749</v>
+        <v>0.01550163470453314</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0023709739893314485</v>
+        <v>0.0025865170792707115</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.02609974659729E-4</v>
+        <v>-5.483017905378862E-4</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.007063659803696165</v>
+        <v>-0.00770581069494114</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01639110436664787</v>
+        <v>0.017881204763615988</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007235351675343726</v>
+        <v>0.007893110918556767</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.010490003350190735</v>
+        <v>-0.011443640018389989</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.022053591968188235</v>
+        <v>-0.024058463965296317</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007004851420878755</v>
+        <v>-0.007641656095504046</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0101049389442473</v>
+        <v>-0.01102356975736074</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0031235441036316924</v>
+        <v>0.003407502658507311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.014977812889712228</v>
+        <v>0.01633943224332246</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01661270853817437</v>
+        <v>-0.018122954768917454</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04731204075833234</v>
+        <v>0.05161313537272616</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02057179246188906</v>
+        <v>-0.02244195541296995</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01432258893895716</v>
+        <v>-0.015624642478862472</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.005331723764694818</v>
+        <v>-0.005816425925121549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006907365030934809</v>
+        <v>0.007535307306474448</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.232835319791799E-4</v>
+        <v>-0.0010072183985228023</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0013550040723953605</v>
+        <v>0.0014781862607949336</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.008032838739360393</v>
+        <v>-0.008763096806575</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.018774552741943895</v>
+        <v>-0.02048133026393889</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.015311721642766563</v>
+        <v>-0.016703696337563523</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.030643326219222555</v>
+        <v>-0.03342908314824278</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.005708614559546243</v>
+        <v>-0.006227579519504867</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.014243835088065204</v>
+        <v>-0.015538729186980182</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.023301074931509624</v>
+        <v>-0.025419354470737898</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004600136846513614</v>
+        <v>0.005018331105287599</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.71791332660887E-4</v>
+        <v>6.237723629028413E-4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0032591209221645157</v>
+        <v>-0.003555404642361204</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008104311200707037</v>
+        <v>0.008841066764407712</v>
       </c>
       <c r="F13" t="n">
-        <v>0.027859730848861397</v>
+        <v>0.030392433653303297</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0016848981220963233</v>
+        <v>0.001838070678650383</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0028890121376772826</v>
+        <v>-0.003151649604738793</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0015264586779424327</v>
+        <v>0.0016652276486645023</v>
       </c>
       <c r="D14" t="n">
-        <v>4.0577154103732527E-4</v>
+        <v>4.426598629496681E-4</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.016187749417563013</v>
+        <v>-0.017659363000977868</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007639855785635918</v>
+        <v>-0.008334388129784653</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008450997581432251</v>
+        <v>0.009219270088835274</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.019354895864557797</v>
+        <v>-0.02111443185224482</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.039692195489296866</v>
+        <v>-0.04330057689741473</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.001061383156793716</v>
+        <v>-0.001157872534684079</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0266063061380159</v>
+        <v>-0.029025061241471917</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.014727378571772143</v>
+        <v>-0.016066231169206024</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0034983507383335444</v>
+        <v>0.0038163826236367604</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02048075764431878</v>
+        <v>0.022342644702893155</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0019611571543939332</v>
+        <v>-0.002139444168429705</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.006618145605559789</v>
+        <v>-0.007219795206065138</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.009282275586623423</v>
+        <v>-0.010126118821771057</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03245054060271446</v>
+        <v>0.03540058974841587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0045883922695516</v>
+        <v>0.005005518839510947</v>
       </c>
       <c r="H16" t="n">
-        <v>0.010862376351506775</v>
+        <v>0.011849865110734714</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.020136812105411184</v>
+        <v>-0.02196743138772128</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004063665893512258</v>
+        <v>0.004433090065649625</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007634186982013014</v>
+        <v>0.008328203980377868</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.009687044107333953</v>
+        <v>-0.010567684480727979</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004719004719004716</v>
+        <v>0.005148005148005175</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.006489689309737534</v>
+        <v>-0.007079661065168441</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04136528082148466</v>
+        <v>0.04512576089616516</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02023145769876722</v>
+        <v>0.022070681125927916</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.010472861984300086</v>
+        <v>-0.01142494034650915</v>
       </c>
       <c r="F18" t="n">
-        <v>0.007945354013129013</v>
+        <v>0.008667658923413424</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04249121817272261</v>
+        <v>-0.04635405618842464</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.056240894103213035</v>
+        <v>-0.06135370265805051</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009195746199714416</v>
+        <v>0.010031723126961212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007030626754755964</v>
+        <v>0.00766977464155183</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0031067774123329506</v>
+        <v>-0.0033892117225450824</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.03977557206457466</v>
+        <v>-0.043391533161354245</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.001232252526248423</v>
+        <v>-0.001344275483180113</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.019573194713447095</v>
+        <v>-0.021352576051033245</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.012758367313232877</v>
+        <v>-0.013918218887163103</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.022465481990653513</v>
+        <v>-0.024507798535258307</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.8457360317273315E-4</v>
+        <v>-4.1953483982482E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06310230335166389</v>
+        <v>-0.0688388763836334</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.032973668843234105</v>
+        <v>-0.03597127510170983</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.011180196716367719</v>
+        <v>-0.012196578236037592</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.010002019059990042</v>
+        <v>-0.010911293519989096</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01687606154616078</v>
+        <v>0.018410248959447983</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.001284470487369016</v>
+        <v>-0.0014012405316752852</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01933368352132664</v>
+        <v>-0.021091291114174404</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.013076660552347075</v>
+        <v>-0.014265447875287607</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009797921029805201</v>
+        <v>-0.010688641123423714</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03493071076191279</v>
+        <v>-0.03810622992208662</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.018358067025790403</v>
+        <v>-0.020026982209953248</v>
       </c>
       <c r="E22" t="n">
-        <v>2.4085423768399616E-4</v>
+        <v>2.6275007747345036E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.011517987566244392</v>
+        <v>0.012565077344994013</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0130705905550626</v>
+        <v>0.01425882606006823</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.017599012919061185</v>
+        <v>-0.019198923184430394</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.011176290161797386</v>
+        <v>0.012192316540142578</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.019357312059175402</v>
+        <v>-0.0211170677009187</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0018776540515670903</v>
+        <v>-0.002048349874436861</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005637107086382542</v>
+        <v>-0.006149571366962758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.017855752123486723</v>
+        <v>0.01947900231653099</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.040758068021894855</v>
+        <v>-0.044463346932976155</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.3418511679389473E-4</v>
+        <v>-3.6456558195691047E-4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0027260936156816573</v>
+        <v>-0.002973920308016409</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.006895412692514202</v>
+        <v>-0.007522268391833675</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0024222694417202484</v>
+        <v>-0.002642475754603857</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006073068525394909</v>
+        <v>0.0066251656640671786</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01832204225415518</v>
+        <v>0.019987682459078282</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.016427918601831626</v>
+        <v>0.017921365747452733</v>
       </c>
       <c r="D25" t="n">
-        <v>0.018886899321681805</v>
+        <v>0.02060389016910752</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.011177302843969616</v>
+        <v>-0.012193421284330375</v>
       </c>
       <c r="F25" t="n">
-        <v>0.010855576072967277</v>
+        <v>0.011842446625055403</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02107001196028102</v>
+        <v>0.02298546759303388</v>
       </c>
       <c r="H25" t="n">
-        <v>0.022405970605698988</v>
+        <v>0.0244428770243989</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0018075163082154622</v>
+        <v>0.0019718359725986456</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.012447029993613745</v>
+        <v>-0.013578578174851474</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.028163798091334402</v>
+        <v>-0.030724143372364843</v>
       </c>
       <c r="F26" t="n">
-        <v>0.012014417784021902</v>
+        <v>0.013106637582569247</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.026688572431326052</v>
+        <v>-0.02911480628871921</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.012370346689400513</v>
+        <v>-0.013494923661164171</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00497682953823303</v>
+        <v>0.0054292685871631385</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.02558950381859104</v>
+        <v>-0.027915822347553854</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.02580459785428718</v>
+        <v>-0.02815047038649504</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.011308668917364595</v>
+        <v>-0.012336729728034068</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.007172644853804311</v>
+        <v>-0.00782470347687736</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.007699469655991331</v>
+        <v>-0.00839942144289979</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01512573896976932</v>
+        <v>0.01650080614883931</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.009386465206942085</v>
+        <v>-0.010239780225754946</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.02711657482188884</v>
+        <v>-0.029581717987515077</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.013674763383614397</v>
+        <v>-0.014917923691215695</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007542783359253014</v>
+        <v>0.008228490937366828</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.018783237932854413</v>
+        <v>-0.020490805017659208</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.024963525964670163</v>
+        <v>-0.027232937416003744</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0178008873661048</v>
+        <v>-0.01941914985393245</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005305642081004425</v>
+        <v>0.005787973179277595</v>
       </c>
       <c r="F29" t="n">
-        <v>0.014963568697247409</v>
+        <v>0.01632389312426996</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.022687638836707102</v>
+        <v>-0.02475015145822601</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.03394699046872962</v>
+        <v>-0.03703308051134152</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0027326822163778464</v>
+        <v>-0.002981107872412292</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02782850785568175</v>
+        <v>0.03035837220619836</v>
       </c>
       <c r="E30" t="n">
-        <v>0.020138085808375727</v>
+        <v>0.021968820881864415</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00727173213586263</v>
+        <v>-0.007932798693668308</v>
       </c>
       <c r="G30" t="n">
-        <v>0.037041350356567804</v>
+        <v>0.04040874584352855</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0030351125888883335</v>
+        <v>-0.0033110319151509193</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -1155,10 +1155,10 @@
         <v>29.0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1181,7 @@
         <v>-0.003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         <v>-0.004</v>
       </c>
       <c r="G6" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="7">
@@ -1227,7 +1227,7 @@
         <v>-0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>17.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04136528082148466</v>
+        <v>0.04512576089616516</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>29.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.020138085808375727</v>
+        <v>0.021968820881864415</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>19.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06310230335166389</v>
+        <v>-0.0688388763836334</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>17.0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04249121817272261</v>
+        <v>-0.04635405618842464</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>29.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.037041350356567804</v>
+        <v>0.04040874584352855</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>14.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02048075764431878</v>
+        <v>0.022342644702893155</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1416,7 +1416,7 @@
         <v>17.0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.056240894103213035</v>
+        <v>-0.06135370265805051</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1439,7 +1439,7 @@
         <v>22.0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.040758068021894855</v>
+        <v>-0.044463346932976155</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -1462,7 +1462,7 @@
         <v>24.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.022405970605698988</v>
+        <v>0.0244428770243989</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -1519,7 +1519,7 @@
         <v>0.9721246125700241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6185791013654048</v>
+        <v>0.6185791013654045</v>
       </c>
     </row>
     <row r="3">
@@ -1536,10 +1536,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9823844806537423</v>
+        <v>0.982384480653743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8941233960402261</v>
+        <v>0.8941233960402402</v>
       </c>
     </row>
     <row r="4">
@@ -1576,10 +1576,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9531234634057688</v>
+        <v>0.9531234634057685</v>
       </c>
       <c r="F5" t="n">
-        <v>0.22043397852576718</v>
+        <v>0.2204339785257623</v>
       </c>
     </row>
     <row r="6">
@@ -1596,10 +1596,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.979442870719286</v>
+        <v>0.9794428707192849</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8238453692573822</v>
+        <v>0.8238453692573529</v>
       </c>
     </row>
     <row r="7">
@@ -1616,10 +1616,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9386440645243013</v>
+        <v>0.9386440645243009</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09239786238643093</v>
+        <v>0.09239786238642898</v>
       </c>
     </row>
   </sheetData>
@@ -1809,7 +1809,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.15118667955123846</v>
+        <v>-0.1511866795512348</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1847,7 +1847,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3137214427332492</v>
+        <v>0.3137214427332406</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1885,7 +1885,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0867534242292392</v>
+        <v>1.0867534242292414</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>
